--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2275912.865534774</v>
+        <v>2279220.702423806</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4859178.531877564</v>
+        <v>4859178.531877563</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>37.14313633741891</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>14.96435308057243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>47.11353018715725</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>96.75882304087168</v>
       </c>
       <c r="I6" t="n">
-        <v>29.81893858089545</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,7 +1023,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>235.9477392089838</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>65.84699805791786</v>
+        <v>110.0817264605106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="12">
@@ -1458,19 +1458,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.16017003319293</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>152.7144052225942</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1625,7 +1625,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1695,13 +1695,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>63.50968227731286</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.43371988938897</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>109.4031921034047</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,16 +2360,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>34.82467754800011</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>54.98390551523835</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,49 +2494,49 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -2597,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2637,25 +2637,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2713,55 +2713,55 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2874,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>12.38883398415875</v>
+        <v>18.82248702120299</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>50.46697834767995</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>49.98213474053743</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.68021010218008</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3399,19 +3399,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y36" t="n">
-        <v>70.10136126801662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,19 +3463,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,22 +3545,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>97.76646051984098</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3639,16 +3639,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3749,19 +3749,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -3794,10 +3794,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>22.23421475067887</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>241.0142888776591</v>
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -4074,7 +4074,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>182.1236780068478</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>148.8187926179027</v>
       </c>
     </row>
     <row r="46">
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.73687329735785</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>80.73687329735785</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="D2" t="n">
-        <v>80.73687329735785</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>80.73687329735785</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>73.79137254815437</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="G2" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
         <v>4.28100232079598</v>
@@ -4331,16 +4331,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M2" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="N2" t="n">
         <v>108.0953086000985</v>
-      </c>
-      <c r="M2" t="n">
-        <v>108.0953086000985</v>
-      </c>
-      <c r="N2" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4352,28 +4352,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>188.8429925093776</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>134.7899329033677</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>80.73687329735785</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>80.73687329735785</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>80.73687329735785</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>80.73687329735785</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>80.73687329735785</v>
+        <v>149.9054410655621</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959154</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>59.08819457959154</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959154</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959154</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4413,46 +4413,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N3" t="n">
-        <v>57.25840604064623</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.08819457959154</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4504,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>325.7766548071333</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E5" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1872303756613</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486.9119902784999</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C6" t="n">
-        <v>312.4589609973729</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D6" t="n">
-        <v>163.5245513361216</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="E6" t="n">
-        <v>163.5245513361216</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="F6" t="n">
-        <v>163.5245513361216</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="G6" t="n">
-        <v>163.5245513361216</v>
+        <v>208.0710897956113</v>
       </c>
       <c r="H6" t="n">
-        <v>50.15541574370091</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>655.1273272985679</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>713.6628781173328</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>420.237879300003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>245.784850018876</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D9" t="n">
-        <v>245.784850018876</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E9" t="n">
-        <v>86.54739501342053</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F9" t="n">
-        <v>86.54739501342053</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,16 +4890,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
         <v>41.77557929797318</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>327.4530077769195</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C12" t="n">
-        <v>327.4530077769195</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D12" t="n">
-        <v>178.5185981156682</v>
+        <v>641.7054013000538</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>482.4679462945983</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>335.9333883214833</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>197.2025629040988</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.83342731167816</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,46 +5124,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>535.2133065418734</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>535.2133065418734</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>535.2133065418734</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W12" t="n">
-        <v>535.2133065418734</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X12" t="n">
-        <v>535.2133065418734</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y12" t="n">
-        <v>327.4530077769195</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
         <v>136.0777814360265</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>731.6906242710602</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H15" t="n">
         <v>110.334904905842</v>
@@ -5361,19 +5361,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5400,7 +5400,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>899.9059612911283</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
         <v>136.0777814360265</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5598,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5707,7 +5707,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W20" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="W20" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X20" t="n">
-        <v>233.7108255783361</v>
-      </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>293.0313262305118</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C21" t="n">
-        <v>293.0313262305118</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>293.0313262305118</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>293.0313262305118</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>293.0313262305118</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>154.3005008131273</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>40.93136522070664</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="U21" t="n">
-        <v>461.2466632505798</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="V21" t="n">
-        <v>461.2466632505798</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="W21" t="n">
-        <v>461.2466632505798</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X21" t="n">
-        <v>461.2466632505798</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y21" t="n">
-        <v>461.2466632505798</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>431.3726917782591</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C24" t="n">
-        <v>431.3726917782591</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D24" t="n">
-        <v>431.3726917782591</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="E24" t="n">
-        <v>272.1352367728036</v>
+        <v>200.9921430510046</v>
       </c>
       <c r="F24" t="n">
-        <v>272.1352367728036</v>
+        <v>54.4575850778896</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>54.4575850778896</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>807.3483275632811</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>807.3483275632811</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>807.3483275632811</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>807.3483275632811</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W24" t="n">
-        <v>807.3483275632811</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3483275632811</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y24" t="n">
-        <v>599.5880287983272</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
         <v>829.5248650203655</v>
@@ -6184,13 +6184,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
         <v>31.35113235729608</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6409,25 +6409,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>327.2640844659515</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="C30" t="n">
-        <v>327.2640844659515</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="D30" t="n">
-        <v>178.3296748047002</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>327.2640844659515</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>327.2640844659515</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X30" t="n">
-        <v>327.2640844659515</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y30" t="n">
-        <v>327.2640844659515</v>
+        <v>527.9820370414925</v>
       </c>
     </row>
     <row r="31">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.618781308658</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C33" t="n">
-        <v>307.165752027531</v>
+        <v>377.9400125653411</v>
       </c>
       <c r="D33" t="n">
-        <v>307.165752027531</v>
+        <v>229.0056029040899</v>
       </c>
       <c r="E33" t="n">
-        <v>307.165752027531</v>
+        <v>69.76814789863437</v>
       </c>
       <c r="F33" t="n">
-        <v>307.165752027531</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>168.4349266101465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>55.0657910177258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6783,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>481.618781308658</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.618781308658</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.2506127830665</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7254,46 +7254,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>865.3031549855443</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>663.1165603443104</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V39" t="n">
-        <v>23.90796037760316</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I40" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J40" t="n">
         <v>41.77557929797318</v>
@@ -7357,25 +7357,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>660.701031422288</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U42" t="n">
-        <v>432.4774131586771</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V42" t="n">
-        <v>432.4774131586771</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>189.028636514577</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>262.7299197543128</v>
@@ -7646,7 +7646,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
         <v>122.2961490211351</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>577.9072497513741</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C45" t="n">
-        <v>577.9072497513741</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D45" t="n">
-        <v>577.9072497513741</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7728,22 +7728,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>577.9072497513741</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>577.9072497513741</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y45" t="n">
-        <v>577.9072497513741</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="46">
@@ -7783,10 +7783,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8061,22 +8061,22 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>193.9466510701538</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,10 +9009,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,10 +9021,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,13 +9246,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10668,13 +10668,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,7 +23276,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>108.137662477717</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="12">
@@ -23346,19 +23346,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>26.23646281822215</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>47.45032347222741</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23434,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23513,7 +23513,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23583,13 +23583,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>142.1730134999915</v>
       </c>
     </row>
     <row r="16">
@@ -23671,7 +23671,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23865,16 +23865,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23947,10 +23947,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,16 +24060,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>67.96291296202611</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>62.27997900043313</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,16 +24248,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>108.137662477717</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,19 +24294,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>77.41076668849635</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>116.6992655885995</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24382,7 +24382,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24485,19 +24485,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0.7562331984329127</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24525,25 +24525,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,16 +24689,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24762,25 +24762,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>145.2562464712422</v>
+        <v>138.822593434198</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,13 +24816,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24917,7 +24917,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>335.7709603083736</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>95.08707765284646</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>54.71642274923499</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25056,10 +25056,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>307.3148329761767</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>185.901842367224</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25287,19 +25287,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y36" t="n">
-        <v>135.5813345092877</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,19 +25351,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,22 +25433,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>73.91671058399685</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25567,10 +25567,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>113.0991222774871</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25637,19 +25637,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25682,10 +25682,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25716,7 +25716,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,25 +25752,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>183.5387704527986</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25804,13 +25804,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>98.46051323810809</v>
@@ -25950,10 +25950,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25962,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>69.57130515407184</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>56.8639031594017</v>
       </c>
     </row>
     <row r="46">
@@ -26023,13 +26023,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>307397.2441829651</v>
+        <v>307397.244182965</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>307397.244182965</v>
+        <v>307397.2441829651</v>
       </c>
     </row>
     <row r="15">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380337</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
         <v>274165.1096766985</v>
       </c>
       <c r="F2" t="n">
+        <v>274165.1096766984</v>
+      </c>
+      <c r="G2" t="n">
         <v>274165.1096766985</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274165.1096766984</v>
       </c>
       <c r="H2" t="n">
         <v>274165.1096766985</v>
@@ -26335,16 +26335,16 @@
         <v>274165.1096766985</v>
       </c>
       <c r="J2" t="n">
-        <v>274165.1096766983</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="K2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766984</v>
       </c>
       <c r="L2" t="n">
         <v>274165.1096766985</v>
       </c>
       <c r="M2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766984</v>
       </c>
       <c r="N2" t="n">
         <v>274165.1096766985</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329956.5536505856</v>
+        <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292588.4654642417</v>
+        <v>292886.4714885942</v>
       </c>
       <c r="C6" t="n">
-        <v>288968.2358829971</v>
+        <v>289376.8090554407</v>
       </c>
       <c r="D6" t="n">
-        <v>349544.5580696653</v>
+        <v>349953.1312421086</v>
       </c>
       <c r="E6" t="n">
-        <v>258923.3352427896</v>
+        <v>259331.9084152329</v>
       </c>
       <c r="F6" t="n">
-        <v>258923.3352427896</v>
+        <v>259331.9084152328</v>
       </c>
       <c r="G6" t="n">
-        <v>258923.3352427895</v>
+        <v>259331.9084152328</v>
       </c>
       <c r="H6" t="n">
-        <v>258923.3352427896</v>
+        <v>259331.9084152328</v>
       </c>
       <c r="I6" t="n">
-        <v>258923.3352427896</v>
+        <v>259331.9084152328</v>
       </c>
       <c r="J6" t="n">
-        <v>244922.1031025101</v>
+        <v>245330.6762749535</v>
       </c>
       <c r="K6" t="n">
-        <v>210666.3823091569</v>
+        <v>211074.9554816002</v>
       </c>
       <c r="L6" t="n">
-        <v>258923.3352427896</v>
+        <v>259331.9084152328</v>
       </c>
       <c r="M6" t="n">
-        <v>258923.3352427896</v>
+        <v>259331.9084152328</v>
       </c>
       <c r="N6" t="n">
-        <v>258923.3352427896</v>
+        <v>259331.9084152329</v>
       </c>
       <c r="O6" t="n">
-        <v>258923.3352427896</v>
+        <v>259331.9084152329</v>
       </c>
       <c r="P6" t="n">
-        <v>258923.3352427896</v>
+        <v>259331.9084152328</v>
       </c>
     </row>
   </sheetData>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>378.1596011777161</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>194.0557165056729</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,7 +27512,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,16 +27552,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>158.3347547678539</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,16 +27591,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>232.8065003465411</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>202.2691865586751</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,28 +27616,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>359.7625155545542</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27658,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>15.47662119562479</v>
       </c>
       <c r="I6" t="n">
-        <v>59.57769427051963</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27813,16 +27813,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>179.3549983061512</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27898,7 +27898,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>71.49651910529278</v>
+        <v>27.26179070270005</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>56.32934533914265</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34781,22 +34781,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N12" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,10 +35741,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,13 +35966,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37871,13 +37871,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2279220.702423806</v>
+        <v>2281544.374237674</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4859178.531877563</v>
+        <v>4859178.531877564</v>
       </c>
     </row>
     <row r="11">
@@ -662,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>3.015063725959907</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G2" t="n">
-        <v>37.14313633741891</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="H3" t="n">
-        <v>46.38724422570589</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.89241773958567</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.170977004479167</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>75.08620022294134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>214.0077506398264</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,28 +977,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>167.2541024014807</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>96.75882304087168</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1209,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>110.0817264605106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1233,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0.04948642736323293</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>63.16017003319293</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>156.8566953852487</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,10 +1572,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1695,13 +1697,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>63.50968227731286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>58.39471844666277</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2123,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>109.4031921034047</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>84.47305450481102</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2257,43 +2259,43 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,22 +2402,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>42.96987856235913</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>34.82467754800011</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -2597,23 +2599,23 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.234466016111892</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.86695539771652</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2871,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>34.67861244220902</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>18.82248702120299</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2889,7 +2891,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2922,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>50.46697834767995</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>49.98213474053743</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>115.8746375175634</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
@@ -3332,7 +3334,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>89.66547645067541</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3518,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3588,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>85.80201760854757</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>97.76646051984098</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3685,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3758,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V41" t="n">
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3879,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>104.2801141926743</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="D44" t="n">
         <v>241.0142888776591</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>142.0207091502683</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -4074,10 +4076,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>148.8187926179027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4310,22 +4312,22 @@
         <v>149.9054410655621</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>146.859922150451</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>146.859922150451</v>
       </c>
       <c r="F2" t="n">
-        <v>41.79932185354235</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>124.457110779899</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,16 +4336,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4413,19 +4415,19 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>163.2132134803467</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>214.050116039799</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="D4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
         <v>26.77543850855644</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>366.1018663125844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>366.1018663125844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>122.6530896684844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>122.6530896684844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>460.1224861050055</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>366.1018663125844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>366.1018663125844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X5" t="n">
-        <v>366.1018663125844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y5" t="n">
-        <v>366.1018663125844</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521.2549444941228</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C6" t="n">
-        <v>346.8019152129958</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D6" t="n">
-        <v>346.8019152129958</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E6" t="n">
-        <v>346.8019152129958</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>346.8019152129958</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>208.0710897956113</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,10 +4652,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4752,25 @@
         <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="C9" t="n">
-        <v>789.6041262295092</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="D9" t="n">
-        <v>640.669716568258</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="E9" t="n">
-        <v>481.4322615628025</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="F9" t="n">
-        <v>334.8977035896875</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.6307585433221</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.33112940047862</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N9" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N9" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="10">
@@ -4939,28 +4941,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>790.6398109613051</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C12" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>641.7054013000538</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>482.4679462945983</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>335.9333883214833</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>197.2025629040988</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>83.83342731167816</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5124,19 +5126,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>790.6398109613051</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>790.6398109613051</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X12" t="n">
-        <v>790.6398109613051</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.6398109613051</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5218,31 +5220,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>731.6906242710602</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>557.2375949899332</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>408.3031853286819</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
         <v>110.334904905842</v>
@@ -5361,19 +5363,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5400,7 +5402,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>899.9059612911283</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5455,31 +5457,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>743.5980286395683</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>156.0631229240681</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5701,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5771,28 +5773,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
         <v>262.7299197543128</v>
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.4883050441255</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>610.1001040146123</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X21" t="n">
-        <v>402.2486038090794</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y21" t="n">
-        <v>194.4883050441255</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
         <v>19.28114311021272</v>
@@ -5941,19 +5943,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6028,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360.2295980564601</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C24" t="n">
-        <v>360.2295980564601</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="D24" t="n">
-        <v>360.2295980564601</v>
+        <v>405.0846510026181</v>
       </c>
       <c r="E24" t="n">
-        <v>200.9921430510046</v>
+        <v>405.0846510026181</v>
       </c>
       <c r="F24" t="n">
-        <v>54.4575850778896</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>54.4575850778896</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>360.2295980564601</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y24" t="n">
-        <v>360.2295980564601</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
         <v>31.35113235729608</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>954.7294120600181</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>954.7294120600181</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>743.5980286395683</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>478.8011081705279</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>319.5636531650724</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>173.0290951919573</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>34.29826977457284</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="28">
@@ -6409,7 +6411,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>527.9820370414925</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C30" t="n">
-        <v>527.9820370414925</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D30" t="n">
-        <v>527.9820370414925</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>527.9820370414925</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>527.9820370414925</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="31">
@@ -6646,13 +6648,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>552.3930418464681</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C33" t="n">
-        <v>377.9400125653411</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D33" t="n">
-        <v>229.0056029040899</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E33" t="n">
-        <v>69.76814789863437</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>340.7491288998418</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6791,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y33" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>109.8523314442283</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="37">
@@ -7120,7 +7122,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7210,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>865.3031549855443</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>663.1165603443104</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>434.8929420806995</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7438,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7518,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>227.1326433157456</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7612,7 +7614,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.4348659156472</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C45" t="n">
-        <v>362.4348659156472</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D45" t="n">
-        <v>362.4348659156472</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E45" t="n">
-        <v>362.4348659156472</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7767,10 +7769,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>362.4348659156472</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7984,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
@@ -7994,7 +7996,7 @@
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,7 +10439,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>244.7225752110828</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>26.23646281822215</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>48.91628981822879</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23583,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.1730134999915</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>150.6253511395826</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23865,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.27997900043313</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>167.2219286561086</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24209,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,22 +24290,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>102.0993338310248</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>77.41076668849635</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,10 +24460,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>118.5910057342293</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7562331984329127</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,19 +24527,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>97.36848883877994</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24649,10 +24651,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24759,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>138.0298865461067</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>138.822593434198</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24777,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,10 +24812,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>335.7709603083736</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>95.08707765284646</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>21.46887964564723</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,7 +25058,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>270.2632538415217</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
@@ -25220,7 +25222,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>185.901842367224</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>116.1075087528021</v>
+        <v>120.4592573625853</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25406,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25448,13 +25450,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25476,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>71.84306284685337</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>73.91671058399685</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25573,7 +25575,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>113.0991222774871</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25646,10 +25648,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>147.4148689682453</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>130.9839860506966</v>
       </c>
       <c r="D44" t="n">
         <v>113.6687527430239</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,16 +25946,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>30.68778983804739</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25962,10 +25964,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>56.8639031594017</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>307397.244182965</v>
+        <v>307397.2441829651</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>307397.244182965</v>
+        <v>307397.2441829651</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>274165.1096766985</v>
       </c>
       <c r="F2" t="n">
+        <v>274165.1096766985</v>
+      </c>
+      <c r="G2" t="n">
         <v>274165.1096766984</v>
       </c>
-      <c r="G2" t="n">
-        <v>274165.1096766985</v>
-      </c>
       <c r="H2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766984</v>
       </c>
       <c r="I2" t="n">
         <v>274165.1096766985</v>
@@ -26344,13 +26346,13 @@
         <v>274165.1096766985</v>
       </c>
       <c r="M2" t="n">
-        <v>274165.1096766984</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="N2" t="n">
         <v>274165.1096766985</v>
       </c>
       <c r="O2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766984</v>
       </c>
       <c r="P2" t="n">
         <v>274165.1096766985</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26418,10 +26420,10 @@
         <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
         <v>179.5324977039669</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292886.4714885942</v>
+        <v>292886.4714885943</v>
       </c>
       <c r="C6" t="n">
         <v>289376.8090554407</v>
       </c>
       <c r="D6" t="n">
-        <v>349953.1312421086</v>
+        <v>349953.1312421085</v>
       </c>
       <c r="E6" t="n">
         <v>259331.9084152329</v>
@@ -26552,13 +26554,13 @@
         <v>259331.9084152328</v>
       </c>
       <c r="M6" t="n">
-        <v>259331.9084152328</v>
+        <v>259331.9084152329</v>
       </c>
       <c r="N6" t="n">
         <v>259331.9084152329</v>
       </c>
       <c r="O6" t="n">
-        <v>259331.9084152329</v>
+        <v>259331.9084152328</v>
       </c>
       <c r="P6" t="n">
         <v>259331.9084152328</v>
@@ -27382,25 +27384,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>351.667977894723</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>378.1596011777161</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>285.9622731058174</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>110.5112449034372</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27552,13 +27554,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>158.3347547678539</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27588,19 +27590,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>226.7746124238023</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>331.7898455187701</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>201.2949868753087</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,28 +27697,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5.454396586835003</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15.47662119562479</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>155.0765476741465</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27870,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>256.5108343207664</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27929,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>27.26179070270005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27953,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.6971048988946238</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27988,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>56.32934533914265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34702,10 +34704,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
@@ -34714,7 +34716,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N3" t="n">
-        <v>51.35040662570938</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35492,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
       <c r="P21" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>113.3808631277494</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2281544.374237674</v>
+        <v>2212693.077796237</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4859178.531877564</v>
+        <v>4859178.531877563</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.015063725959907</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E3" t="n">
-        <v>47.13383555196375</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,31 +858,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G5" t="n">
-        <v>214.0077506398264</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>167.2541024014807</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>82.96396779500076</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1235,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04948642736323293</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>62.0774998633574</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1372,64 +1372,64 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>156.8566953852487</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>77.92691371295918</v>
       </c>
     </row>
     <row r="13">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>3.833014606081282</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>49.45972639891031</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>150.9424860118585</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>84.47305450481102</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2402,22 +2402,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="F24" t="n">
-        <v>42.96987856235913</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>14.86695539771652</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>34.67861244220902</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2882,10 +2882,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>179.7863072661779</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,20 +3031,20 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3073,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>115.8746375175634</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>126.2480181108248</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3207,49 +3207,49 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3356,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3514,55 +3514,55 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>16.16726461546774</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>85.80201760854757</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,17 +3739,17 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>6.438799626810428</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>104.2801141926743</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3918,49 +3918,49 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>142.0207091502683</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>122.5899586056058</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4155,40 +4155,40 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>146.859922150451</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>146.859922150451</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>139.9144214012476</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>124.457110779899</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4333,16 +4333,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>55.11790488024824</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
         <v>214.050116039799</v>
@@ -4354,25 +4354,25 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="Y2" t="n">
         <v>149.9054410655621</v>
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4415,46 +4415,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>134.8815577205762</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>134.8815577205762</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>460.1224861050055</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>622.424473941237</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>453.4809361619635</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V6" t="n">
-        <v>790.6398109613051</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W6" t="n">
-        <v>790.6398109613051</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X6" t="n">
-        <v>790.6398109613051</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E8" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F8" t="n">
-        <v>559.1338160830064</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G8" t="n">
-        <v>315.6850394389064</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.9998941357428</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="C9" t="n">
-        <v>222.9998941357428</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D9" t="n">
-        <v>222.9998941357428</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>222.9998941357428</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9998941357428</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9998941357428</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6307585433221</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.33112940047862</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>901.3526101941136</v>
       </c>
       <c r="W9" t="n">
-        <v>391.2152311558108</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="X9" t="n">
-        <v>391.2152311558108</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="Y9" t="n">
-        <v>391.2152311558108</v>
+        <v>657.9038335500135</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.4883050441255</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5153,19 +5153,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>728.9050472788936</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>570.4639408291474</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y12" t="n">
-        <v>362.7036420641935</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>23.90700768833307</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90700768833307</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5360,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>172.8414173495843</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>183.363730950278</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>183.363730950278</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>183.363730950278</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>183.363730950278</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>183.363730950278</v>
       </c>
     </row>
     <row r="19">
@@ -5703,19 +5703,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>710.420468475786</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>710.420468475786</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>710.420468475786</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>710.420468475786</v>
       </c>
       <c r="W21" t="n">
-        <v>777.5613083818946</v>
+        <v>710.420468475786</v>
       </c>
       <c r="X21" t="n">
-        <v>569.7098081763618</v>
+        <v>710.420468475786</v>
       </c>
       <c r="Y21" t="n">
-        <v>361.9495094114078</v>
+        <v>502.6601697108322</v>
       </c>
     </row>
     <row r="22">
@@ -5940,7 +5940,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>554.0190606638694</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C24" t="n">
-        <v>554.0190606638694</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="D24" t="n">
-        <v>405.0846510026181</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="E24" t="n">
-        <v>405.0846510026181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X24" t="n">
-        <v>554.0190606638694</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.0190606638694</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="25">
@@ -6171,10 +6171,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>627.7355178317791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C27" t="n">
-        <v>627.7355178317791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D27" t="n">
-        <v>478.8011081705279</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E27" t="n">
-        <v>319.5636531650724</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>173.0290951919573</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>34.29826977457284</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>627.7355178317791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>627.7355178317791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>627.7355178317791</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>761.8705608694022</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="C30" t="n">
-        <v>726.8416594126254</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="D30" t="n">
-        <v>577.9072497513741</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E30" t="n">
-        <v>418.6697947459187</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>272.1352367728036</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>609.0374803894082</v>
       </c>
       <c r="X30" t="n">
-        <v>761.8705608694022</v>
+        <v>609.0374803894082</v>
       </c>
       <c r="Y30" t="n">
-        <v>761.8705608694022</v>
+        <v>609.0374803894082</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6679,16 +6679,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,28 +6721,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>340.7491288998418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>591.4512093066566</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>591.4512093066566</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>348.0024326625565</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X35" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>501.9060370580465</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7025,10 +7025,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7058,10 +7058,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>670.1213740781145</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>391.2152311558108</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="C39" t="n">
-        <v>391.2152311558108</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>391.2152311558108</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7256,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>473.4149733950735</v>
@@ -7286,19 +7286,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>391.2152311558108</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X39" t="n">
-        <v>391.2152311558108</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y39" t="n">
-        <v>391.2152311558108</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7432,28 +7432,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
         <v>262.7299197543128</v>
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W42" t="n">
-        <v>395.3479803358136</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4964801302808</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.4964801302808</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T44" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U44" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C45" t="n">
-        <v>577.1531170985884</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D45" t="n">
-        <v>577.1531170985884</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E45" t="n">
-        <v>417.9156620931329</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F45" t="n">
-        <v>271.3811041200179</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,16 +7736,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8063,7 +8063,7 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8072,13 +8072,13 @@
         <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9731,13 +9731,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10673,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>349.0484638974528</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11156,10 +11156,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,19 +23305,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>233.3417714764288</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>48.91628981822879</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>127.7557820643452</v>
       </c>
     </row>
     <row r="13">
@@ -23433,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>141.2361977873026</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23639,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>108.1853540564906</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>20.74068509197932</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24110,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>167.2219286561086</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24256,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24290,22 +24290,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>92.51447839016363</v>
       </c>
       <c r="F24" t="n">
-        <v>102.0993338310248</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24338,13 +24338,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,13 +24411,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>118.5910057342293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24502,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>34.30853052353727</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>97.36848883877994</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,13 +24578,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>138.0298865461067</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24770,10 +24770,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,7 +24821,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>71.90867589474166</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,19 +24919,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25007,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>21.46887964564723</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>106.5525690386005</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>270.2632538415217</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25298,10 +25298,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>120.4592573625853</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>156.541234372848</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>71.84306284685337</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25684,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>160.0943840230569</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>147.4148689682453</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>130.9839860506966</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>30.68778983804739</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.75355855760483</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,10 +26000,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>307397.2441829651</v>
+        <v>307397.2441829652</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
         <v>274165.1096766985</v>
       </c>
       <c r="F2" t="n">
+        <v>274165.1096766984</v>
+      </c>
+      <c r="G2" t="n">
         <v>274165.1096766985</v>
       </c>
-      <c r="G2" t="n">
-        <v>274165.1096766984</v>
-      </c>
       <c r="H2" t="n">
-        <v>274165.1096766984</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="I2" t="n">
         <v>274165.1096766985</v>
@@ -26340,10 +26340,10 @@
         <v>274165.1096766985</v>
       </c>
       <c r="K2" t="n">
+        <v>274165.1096766985</v>
+      </c>
+      <c r="L2" t="n">
         <v>274165.1096766984</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274165.1096766985</v>
       </c>
       <c r="M2" t="n">
         <v>274165.1096766985</v>
@@ -26352,7 +26352,7 @@
         <v>274165.1096766985</v>
       </c>
       <c r="O2" t="n">
-        <v>274165.1096766984</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="P2" t="n">
         <v>274165.1096766985</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292886.4714885943</v>
+        <v>292886.471488594</v>
       </c>
       <c r="C6" t="n">
-        <v>289376.8090554407</v>
+        <v>289376.8090554409</v>
       </c>
       <c r="D6" t="n">
-        <v>349953.1312421085</v>
+        <v>349953.1312421086</v>
       </c>
       <c r="E6" t="n">
-        <v>259331.9084152329</v>
+        <v>247113.8977951923</v>
       </c>
       <c r="F6" t="n">
-        <v>259331.9084152328</v>
+        <v>247113.8977951923</v>
       </c>
       <c r="G6" t="n">
-        <v>259331.9084152328</v>
+        <v>247113.8977951924</v>
       </c>
       <c r="H6" t="n">
-        <v>259331.9084152328</v>
+        <v>247113.8977951923</v>
       </c>
       <c r="I6" t="n">
-        <v>259331.9084152328</v>
+        <v>247113.8977951923</v>
       </c>
       <c r="J6" t="n">
-        <v>245330.6762749535</v>
+        <v>233112.6656549131</v>
       </c>
       <c r="K6" t="n">
-        <v>211074.9554816002</v>
+        <v>198856.9448615598</v>
       </c>
       <c r="L6" t="n">
-        <v>259331.9084152328</v>
+        <v>247113.8977951923</v>
       </c>
       <c r="M6" t="n">
-        <v>259331.9084152329</v>
+        <v>247113.8977951924</v>
       </c>
       <c r="N6" t="n">
-        <v>259331.9084152329</v>
+        <v>247113.8977951924</v>
       </c>
       <c r="O6" t="n">
-        <v>259331.9084152328</v>
+        <v>247113.8977951923</v>
       </c>
       <c r="P6" t="n">
-        <v>259331.9084152328</v>
+        <v>247113.8977951924</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>351.667977894723</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
-        <v>110.5112449034372</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>125.295926878132</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,31 +27578,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>151.131481811701</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>226.7746124238023</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>351.1641048164582</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>201.2949868753087</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>5.454396586835003</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.54046403904</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.0765476741465</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27858,25 +27858,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>273.8529271457276</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>256.5108343207664</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6971048988946238</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,10 +27988,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>170.7230872860679</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -28022,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35020,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35737,16 +35737,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36451,13 +36451,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37876,10 +37876,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
